--- a/INTLINE/data/193/ABS/87310038.xlsx
+++ b/INTLINE/data/193/ABS/87310038.xlsx
@@ -12,53 +12,53 @@
     <sheet name="Enquiries" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="A2413226R">Data1!$J$1:$J$10,Data1!$J$119:$J$804</definedName>
-    <definedName name="A2413226R_Data">Data1!$J$119:$J$804</definedName>
-    <definedName name="A2413226R_Latest">Data1!$J$804</definedName>
-    <definedName name="A419826L">Data1!$B$1:$B$10,Data1!$B$11:$B$804</definedName>
-    <definedName name="A419826L_Data">Data1!$B$11:$B$804</definedName>
-    <definedName name="A419826L_Latest">Data1!$B$804</definedName>
-    <definedName name="A419838W">Data1!$C$1:$C$10,Data1!$C$221:$C$804</definedName>
-    <definedName name="A419838W_Data">Data1!$C$221:$C$804</definedName>
-    <definedName name="A419838W_Latest">Data1!$C$804</definedName>
-    <definedName name="A419850L">Data1!$D$1:$D$10,Data1!$D$221:$D$804</definedName>
-    <definedName name="A419850L_Data">Data1!$D$221:$D$804</definedName>
-    <definedName name="A419850L_Latest">Data1!$D$804</definedName>
-    <definedName name="A419851R">Data1!$G$1:$G$10,Data1!$G$11:$G$804</definedName>
-    <definedName name="A419851R_Data">Data1!$G$11:$G$804</definedName>
-    <definedName name="A419851R_Latest">Data1!$G$804</definedName>
-    <definedName name="A419852T">Data1!$H$1:$H$10,Data1!$H$221:$H$804</definedName>
-    <definedName name="A419852T_Data">Data1!$H$221:$H$804</definedName>
-    <definedName name="A419852T_Latest">Data1!$H$804</definedName>
-    <definedName name="A419853V">Data1!$I$1:$I$10,Data1!$I$221:$I$804</definedName>
-    <definedName name="A419853V_Data">Data1!$I$221:$I$804</definedName>
-    <definedName name="A419853V_Latest">Data1!$I$804</definedName>
-    <definedName name="A419854W">Data1!$L$1:$L$10,Data1!$L$11:$L$804</definedName>
-    <definedName name="A419854W_Data">Data1!$L$11:$L$804</definedName>
-    <definedName name="A419854W_Latest">Data1!$L$804</definedName>
-    <definedName name="A419855X">Data1!$M$1:$M$10,Data1!$M$221:$M$804</definedName>
-    <definedName name="A419855X_Data">Data1!$M$221:$M$804</definedName>
-    <definedName name="A419855X_Latest">Data1!$M$804</definedName>
-    <definedName name="A419856A">Data1!$N$1:$N$10,Data1!$N$221:$N$804</definedName>
-    <definedName name="A419856A_Data">Data1!$N$221:$N$804</definedName>
-    <definedName name="A419856A_Latest">Data1!$N$804</definedName>
-    <definedName name="A420595L">Data1!$E$1:$E$10,Data1!$E$119:$E$804</definedName>
-    <definedName name="A420595L_Data">Data1!$E$119:$E$804</definedName>
-    <definedName name="A420595L_Latest">Data1!$E$804</definedName>
-    <definedName name="A420596R">Data1!$O$1:$O$10,Data1!$O$119:$O$804</definedName>
-    <definedName name="A420596R_Data">Data1!$O$119:$O$804</definedName>
-    <definedName name="A420596R_Latest">Data1!$O$804</definedName>
-    <definedName name="A422066T">Data1!$F$1:$F$10,Data1!$F$71:$F$804</definedName>
-    <definedName name="A422066T_Data">Data1!$F$71:$F$804</definedName>
-    <definedName name="A422066T_Latest">Data1!$F$804</definedName>
-    <definedName name="A422071K">Data1!$K$1:$K$10,Data1!$K$221:$K$804</definedName>
-    <definedName name="A422071K_Data">Data1!$K$221:$K$804</definedName>
-    <definedName name="A422071K_Latest">Data1!$K$804</definedName>
-    <definedName name="A422073R">Data1!$P$1:$P$10,Data1!$P$221:$P$804</definedName>
-    <definedName name="A422073R_Data">Data1!$P$221:$P$804</definedName>
-    <definedName name="A422073R_Latest">Data1!$P$804</definedName>
-    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$804</definedName>
-    <definedName name="Date_Range_Data">Data1!$A$11:$A$804</definedName>
+    <definedName name="A2413226R">Data1!$J$1:$J$10,Data1!$J$119:$J$806</definedName>
+    <definedName name="A2413226R_Data">Data1!$J$119:$J$806</definedName>
+    <definedName name="A2413226R_Latest">Data1!$J$806</definedName>
+    <definedName name="A419826L">Data1!$B$1:$B$10,Data1!$B$11:$B$806</definedName>
+    <definedName name="A419826L_Data">Data1!$B$11:$B$806</definedName>
+    <definedName name="A419826L_Latest">Data1!$B$806</definedName>
+    <definedName name="A419838W">Data1!$C$1:$C$10,Data1!$C$221:$C$806</definedName>
+    <definedName name="A419838W_Data">Data1!$C$221:$C$806</definedName>
+    <definedName name="A419838W_Latest">Data1!$C$806</definedName>
+    <definedName name="A419850L">Data1!$D$1:$D$10,Data1!$D$221:$D$806</definedName>
+    <definedName name="A419850L_Data">Data1!$D$221:$D$806</definedName>
+    <definedName name="A419850L_Latest">Data1!$D$806</definedName>
+    <definedName name="A419851R">Data1!$G$1:$G$10,Data1!$G$11:$G$806</definedName>
+    <definedName name="A419851R_Data">Data1!$G$11:$G$806</definedName>
+    <definedName name="A419851R_Latest">Data1!$G$806</definedName>
+    <definedName name="A419852T">Data1!$H$1:$H$10,Data1!$H$221:$H$806</definedName>
+    <definedName name="A419852T_Data">Data1!$H$221:$H$806</definedName>
+    <definedName name="A419852T_Latest">Data1!$H$806</definedName>
+    <definedName name="A419853V">Data1!$I$1:$I$10,Data1!$I$221:$I$806</definedName>
+    <definedName name="A419853V_Data">Data1!$I$221:$I$806</definedName>
+    <definedName name="A419853V_Latest">Data1!$I$806</definedName>
+    <definedName name="A419854W">Data1!$L$1:$L$10,Data1!$L$11:$L$806</definedName>
+    <definedName name="A419854W_Data">Data1!$L$11:$L$806</definedName>
+    <definedName name="A419854W_Latest">Data1!$L$806</definedName>
+    <definedName name="A419855X">Data1!$M$1:$M$10,Data1!$M$221:$M$806</definedName>
+    <definedName name="A419855X_Data">Data1!$M$221:$M$806</definedName>
+    <definedName name="A419855X_Latest">Data1!$M$806</definedName>
+    <definedName name="A419856A">Data1!$N$1:$N$10,Data1!$N$221:$N$806</definedName>
+    <definedName name="A419856A_Data">Data1!$N$221:$N$806</definedName>
+    <definedName name="A419856A_Latest">Data1!$N$806</definedName>
+    <definedName name="A420595L">Data1!$E$1:$E$10,Data1!$E$119:$E$806</definedName>
+    <definedName name="A420595L_Data">Data1!$E$119:$E$806</definedName>
+    <definedName name="A420595L_Latest">Data1!$E$806</definedName>
+    <definedName name="A420596R">Data1!$O$1:$O$10,Data1!$O$119:$O$806</definedName>
+    <definedName name="A420596R_Data">Data1!$O$119:$O$806</definedName>
+    <definedName name="A420596R_Latest">Data1!$O$806</definedName>
+    <definedName name="A422066T">Data1!$F$1:$F$10,Data1!$F$71:$F$806</definedName>
+    <definedName name="A422066T_Data">Data1!$F$71:$F$806</definedName>
+    <definedName name="A422066T_Latest">Data1!$F$806</definedName>
+    <definedName name="A422071K">Data1!$K$1:$K$10,Data1!$K$221:$K$806</definedName>
+    <definedName name="A422071K_Data">Data1!$K$221:$K$806</definedName>
+    <definedName name="A422071K_Latest">Data1!$K$806</definedName>
+    <definedName name="A422073R">Data1!$P$1:$P$10,Data1!$P$221:$P$806</definedName>
+    <definedName name="A422073R_Data">Data1!$P$221:$P$806</definedName>
+    <definedName name="A422073R_Latest">Data1!$P$806</definedName>
+    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$806</definedName>
+    <definedName name="Date_Range_Data">Data1!$A$11:$A$806</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -42346,6 +42346,136 @@
       </text>
     </comment>
     <comment ref="P804" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L805" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M805" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N805" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O805" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P805" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L806" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M806" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N806" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O806" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P806" authorId="0">
       <text>
         <r>
           <rPr>
@@ -43203,10 +43333,10 @@
         <v>20455</v>
       </c>
       <c r="G12" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H12" s="10">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>14</v>
@@ -43235,10 +43365,10 @@
         <v>26846</v>
       </c>
       <c r="G13" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H13" s="10">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>14</v>
@@ -43267,10 +43397,10 @@
         <v>26846</v>
       </c>
       <c r="G14" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H14" s="10">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>14</v>
@@ -43299,10 +43429,10 @@
         <v>23743</v>
       </c>
       <c r="G15" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H15" s="10">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>14</v>
@@ -43331,10 +43461,10 @@
         <v>22282</v>
       </c>
       <c r="G16" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H16" s="10">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>14</v>
@@ -43363,10 +43493,10 @@
         <v>20455</v>
       </c>
       <c r="G17" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H17" s="10">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>14</v>
@@ -43395,10 +43525,10 @@
         <v>26846</v>
       </c>
       <c r="G18" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H18" s="10">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>14</v>
@@ -43427,10 +43557,10 @@
         <v>26846</v>
       </c>
       <c r="G19" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H19" s="10">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>14</v>
@@ -43459,10 +43589,10 @@
         <v>23743</v>
       </c>
       <c r="G20" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H20" s="10">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>14</v>
@@ -43491,10 +43621,10 @@
         <v>26846</v>
       </c>
       <c r="G21" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H21" s="10">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>14</v>
@@ -43523,10 +43653,10 @@
         <v>20455</v>
       </c>
       <c r="G22" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H22" s="10">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>14</v>
@@ -43555,10 +43685,10 @@
         <v>26846</v>
       </c>
       <c r="G23" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H23" s="10">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="I23" s="10" t="s">
         <v>14</v>
@@ -43587,10 +43717,10 @@
         <v>26846</v>
       </c>
       <c r="G24" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H24" s="10">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>14</v>
@@ -43619,10 +43749,10 @@
         <v>23743</v>
       </c>
       <c r="G25" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H25" s="10">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="I25" s="10" t="s">
         <v>14</v>
@@ -43651,10 +43781,10 @@
         <v>26846</v>
       </c>
       <c r="G26" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H26" s="10">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="I26" s="10" t="s">
         <v>14</v>
@@ -43704,7 +43834,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P804"/>
+  <dimension ref="A1:P806"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
@@ -44070,49 +44200,49 @@
         <v>11</v>
       </c>
       <c r="B8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="C8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="D8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="E8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="F8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="G8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="I8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="J8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="K8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="L8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="M8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="N8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="O8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="P8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -44120,49 +44250,49 @@
         <v>12</v>
       </c>
       <c r="B9" s="1">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="C9" s="1">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="D9" s="1">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="E9" s="1">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="F9" s="1">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="G9" s="1">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="H9" s="1">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="I9" s="1">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="J9" s="1">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="K9" s="1">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="L9" s="1">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="M9" s="1">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="N9" s="1">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="O9" s="1">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="P9" s="1">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -70464,34 +70594,34 @@
         <v>44013</v>
       </c>
       <c r="B785" s="8">
-        <v>5198391</v>
+        <v>5294522</v>
       </c>
       <c r="C785" s="8">
-        <v>837217</v>
+        <v>837534</v>
       </c>
       <c r="D785" s="8">
-        <v>6035608</v>
+        <v>6132056</v>
       </c>
       <c r="E785" s="8">
         <v>4220314</v>
       </c>
       <c r="F785" s="8">
-        <v>10255922</v>
+        <v>10352370</v>
       </c>
       <c r="G785" s="8">
-        <v>4834813</v>
+        <v>4924221</v>
       </c>
       <c r="H785" s="8">
-        <v>760450</v>
+        <v>760738</v>
       </c>
       <c r="I785" s="8">
-        <v>5595263</v>
+        <v>5684958</v>
       </c>
       <c r="J785" s="8">
         <v>3800818</v>
       </c>
       <c r="K785" s="8">
-        <v>9396080</v>
+        <v>9485776</v>
       </c>
       <c r="L785" s="8"/>
       <c r="M785" s="8"/>
@@ -70504,34 +70634,34 @@
         <v>44044</v>
       </c>
       <c r="B786" s="8">
-        <v>4813397</v>
+        <v>4816922</v>
       </c>
       <c r="C786" s="8">
-        <v>770610</v>
+        <v>770797</v>
       </c>
       <c r="D786" s="8">
-        <v>5584007</v>
+        <v>5587719</v>
       </c>
       <c r="E786" s="8">
-        <v>4071586</v>
+        <v>4145086</v>
       </c>
       <c r="F786" s="8">
-        <v>9655593</v>
+        <v>9732805</v>
       </c>
       <c r="G786" s="8">
-        <v>4991561</v>
+        <v>4995216</v>
       </c>
       <c r="H786" s="8">
-        <v>782801</v>
+        <v>782991</v>
       </c>
       <c r="I786" s="8">
-        <v>5774362</v>
+        <v>5778208</v>
       </c>
       <c r="J786" s="8">
-        <v>4310217</v>
+        <v>4388025</v>
       </c>
       <c r="K786" s="8">
-        <v>10084579</v>
+        <v>10166232</v>
       </c>
       <c r="L786" s="8"/>
       <c r="M786" s="8"/>
@@ -70544,34 +70674,34 @@
         <v>44075</v>
       </c>
       <c r="B787" s="8">
-        <v>5424287</v>
+        <v>5426111</v>
       </c>
       <c r="C787" s="8">
-        <v>866037</v>
+        <v>865346</v>
       </c>
       <c r="D787" s="8">
-        <v>6290325</v>
+        <v>6291457</v>
       </c>
       <c r="E787" s="8">
         <v>3056660</v>
       </c>
       <c r="F787" s="8">
-        <v>9346985</v>
+        <v>9348117</v>
       </c>
       <c r="G787" s="8">
-        <v>5127507</v>
+        <v>5129231</v>
       </c>
       <c r="H787" s="8">
-        <v>816000</v>
+        <v>815349</v>
       </c>
       <c r="I787" s="8">
-        <v>5943507</v>
+        <v>5944580</v>
       </c>
       <c r="J787" s="8">
         <v>3012052</v>
       </c>
       <c r="K787" s="8">
-        <v>8955558</v>
+        <v>8956631</v>
       </c>
       <c r="L787" s="8"/>
       <c r="M787" s="8"/>
@@ -70584,34 +70714,34 @@
         <v>44105</v>
       </c>
       <c r="B788" s="8">
-        <v>6156594</v>
+        <v>6158382</v>
       </c>
       <c r="C788" s="8">
-        <v>879656</v>
+        <v>873665</v>
       </c>
       <c r="D788" s="8">
-        <v>7036250</v>
+        <v>7032047</v>
       </c>
       <c r="E788" s="8">
-        <v>5414781</v>
+        <v>5424239</v>
       </c>
       <c r="F788" s="8">
-        <v>12451032</v>
+        <v>12456286</v>
       </c>
       <c r="G788" s="8">
-        <v>5589028</v>
+        <v>5590651</v>
       </c>
       <c r="H788" s="8">
-        <v>839960</v>
+        <v>834239</v>
       </c>
       <c r="I788" s="8">
-        <v>6428988</v>
+        <v>6424890</v>
       </c>
       <c r="J788" s="8">
-        <v>4904071</v>
+        <v>4912637</v>
       </c>
       <c r="K788" s="8">
-        <v>11333059</v>
+        <v>11337527</v>
       </c>
       <c r="L788" s="8"/>
       <c r="M788" s="8"/>
@@ -70624,34 +70754,34 @@
         <v>44136</v>
       </c>
       <c r="B789" s="8">
-        <v>6174117</v>
+        <v>6174257</v>
       </c>
       <c r="C789" s="8">
         <v>892315</v>
       </c>
       <c r="D789" s="8">
-        <v>7066432</v>
+        <v>7066572</v>
       </c>
       <c r="E789" s="8">
-        <v>3581416</v>
+        <v>3582316</v>
       </c>
       <c r="F789" s="8">
-        <v>10647847</v>
+        <v>10648888</v>
       </c>
       <c r="G789" s="8">
-        <v>5884875</v>
+        <v>5885009</v>
       </c>
       <c r="H789" s="8">
         <v>874167</v>
       </c>
       <c r="I789" s="8">
-        <v>6759043</v>
+        <v>6759176</v>
       </c>
       <c r="J789" s="8">
-        <v>3742266</v>
+        <v>3743207</v>
       </c>
       <c r="K789" s="8">
-        <v>10501309</v>
+        <v>10502383</v>
       </c>
       <c r="L789" s="8"/>
       <c r="M789" s="8"/>
@@ -70664,34 +70794,34 @@
         <v>44166</v>
       </c>
       <c r="B790" s="8">
-        <v>5666787</v>
+        <v>5706465</v>
       </c>
       <c r="C790" s="8">
         <v>868583</v>
       </c>
       <c r="D790" s="8">
-        <v>6535370</v>
+        <v>6575048</v>
       </c>
       <c r="E790" s="8">
-        <v>4393044</v>
+        <v>4391788</v>
       </c>
       <c r="F790" s="8">
-        <v>10928414</v>
+        <v>10966836</v>
       </c>
       <c r="G790" s="8">
-        <v>6088717</v>
+        <v>6131349</v>
       </c>
       <c r="H790" s="8">
         <v>955393</v>
       </c>
       <c r="I790" s="8">
-        <v>7044110</v>
+        <v>7086742</v>
       </c>
       <c r="J790" s="8">
-        <v>4268282</v>
+        <v>4267062</v>
       </c>
       <c r="K790" s="8">
-        <v>11312392</v>
+        <v>11353804</v>
       </c>
       <c r="L790" s="8"/>
       <c r="M790" s="8"/>
@@ -70704,34 +70834,34 @@
         <v>44197</v>
       </c>
       <c r="B791" s="8">
-        <v>4265478</v>
+        <v>4266447</v>
       </c>
       <c r="C791" s="8">
-        <v>629348</v>
+        <v>628777</v>
       </c>
       <c r="D791" s="8">
-        <v>4894826</v>
+        <v>4895224</v>
       </c>
       <c r="E791" s="8">
         <v>3383406</v>
       </c>
       <c r="F791" s="8">
-        <v>8278233</v>
+        <v>8278631</v>
       </c>
       <c r="G791" s="8">
-        <v>5530202</v>
+        <v>5531458</v>
       </c>
       <c r="H791" s="8">
-        <v>940454</v>
+        <v>939601</v>
       </c>
       <c r="I791" s="8">
-        <v>6470656</v>
+        <v>6471059</v>
       </c>
       <c r="J791" s="8">
         <v>3768909</v>
       </c>
       <c r="K791" s="8">
-        <v>10239565</v>
+        <v>10239968</v>
       </c>
       <c r="L791" s="8"/>
       <c r="M791" s="8"/>
@@ -70744,34 +70874,34 @@
         <v>44228</v>
       </c>
       <c r="B792" s="8">
-        <v>6442548</v>
+        <v>6444206</v>
       </c>
       <c r="C792" s="8">
         <v>1041431</v>
       </c>
       <c r="D792" s="8">
-        <v>7483979</v>
+        <v>7485637</v>
       </c>
       <c r="E792" s="8">
         <v>4451081</v>
       </c>
       <c r="F792" s="8">
-        <v>11935060</v>
+        <v>11936718</v>
       </c>
       <c r="G792" s="8">
-        <v>6721069</v>
+        <v>6722799</v>
       </c>
       <c r="H792" s="8">
         <v>1001838</v>
       </c>
       <c r="I792" s="8">
-        <v>7722907</v>
+        <v>7724637</v>
       </c>
       <c r="J792" s="8">
         <v>4346929</v>
       </c>
       <c r="K792" s="8">
-        <v>12069836</v>
+        <v>12071566</v>
       </c>
       <c r="L792" s="8"/>
       <c r="M792" s="8"/>
@@ -70784,34 +70914,34 @@
         <v>44256</v>
       </c>
       <c r="B793" s="8">
-        <v>8415620</v>
+        <v>8414758</v>
       </c>
       <c r="C793" s="8">
-        <v>1234179</v>
+        <v>1234457</v>
       </c>
       <c r="D793" s="8">
-        <v>9649799</v>
+        <v>9649215</v>
       </c>
       <c r="E793" s="8">
-        <v>6602399</v>
+        <v>6602574</v>
       </c>
       <c r="F793" s="8">
-        <v>16252198</v>
+        <v>16251790</v>
       </c>
       <c r="G793" s="8">
-        <v>7603835</v>
+        <v>7603056</v>
       </c>
       <c r="H793" s="8">
-        <v>1082661</v>
+        <v>1082905</v>
       </c>
       <c r="I793" s="8">
-        <v>8686495</v>
+        <v>8685960</v>
       </c>
       <c r="J793" s="8">
-        <v>7173337</v>
+        <v>7173530</v>
       </c>
       <c r="K793" s="8">
-        <v>15859833</v>
+        <v>15859490</v>
       </c>
       <c r="L793" s="8"/>
       <c r="M793" s="8"/>
@@ -70824,34 +70954,34 @@
         <v>44287</v>
       </c>
       <c r="B794" s="8">
-        <v>7226198</v>
+        <v>7227660</v>
       </c>
       <c r="C794" s="8">
-        <v>1048379</v>
+        <v>1047829</v>
       </c>
       <c r="D794" s="8">
-        <v>8274577</v>
+        <v>8275489</v>
       </c>
       <c r="E794" s="8">
-        <v>3779234</v>
+        <v>3806311</v>
       </c>
       <c r="F794" s="8">
-        <v>12053811</v>
+        <v>12081800</v>
       </c>
       <c r="G794" s="8">
-        <v>7479460</v>
+        <v>7480973</v>
       </c>
       <c r="H794" s="8">
-        <v>1121489</v>
+        <v>1120901</v>
       </c>
       <c r="I794" s="8">
-        <v>8600949</v>
+        <v>8601874</v>
       </c>
       <c r="J794" s="8">
-        <v>4077605</v>
+        <v>4106819</v>
       </c>
       <c r="K794" s="8">
-        <v>12678553</v>
+        <v>12708693</v>
       </c>
       <c r="L794" s="8"/>
       <c r="M794" s="8"/>
@@ -70864,34 +70994,34 @@
         <v>44317</v>
       </c>
       <c r="B795" s="8">
-        <v>7107522</v>
+        <v>7108116</v>
       </c>
       <c r="C795" s="8">
-        <v>1051367</v>
+        <v>1051567</v>
       </c>
       <c r="D795" s="8">
-        <v>8158889</v>
+        <v>8159683</v>
       </c>
       <c r="E795" s="8">
-        <v>5548074</v>
+        <v>5629830</v>
       </c>
       <c r="F795" s="8">
-        <v>13706963</v>
+        <v>13789514</v>
       </c>
       <c r="G795" s="8">
-        <v>7059167</v>
+        <v>7059757</v>
       </c>
       <c r="H795" s="8">
-        <v>996245</v>
+        <v>996434</v>
       </c>
       <c r="I795" s="8">
-        <v>8055411</v>
+        <v>8056191</v>
       </c>
       <c r="J795" s="8">
-        <v>5283226</v>
+        <v>5361079</v>
       </c>
       <c r="K795" s="8">
-        <v>13338637</v>
+        <v>13417270</v>
       </c>
       <c r="L795" s="8"/>
       <c r="M795" s="8"/>
@@ -70904,34 +71034,34 @@
         <v>44348</v>
       </c>
       <c r="B796" s="8">
-        <v>6922175</v>
+        <v>6926357</v>
       </c>
       <c r="C796" s="8">
-        <v>1063048</v>
+        <v>1062484</v>
       </c>
       <c r="D796" s="8">
-        <v>7985223</v>
+        <v>7988841</v>
       </c>
       <c r="E796" s="8">
-        <v>5056807</v>
+        <v>6056527</v>
       </c>
       <c r="F796" s="8">
-        <v>13042030</v>
+        <v>14045368</v>
       </c>
       <c r="G796" s="8">
-        <v>6930839</v>
+        <v>6935026</v>
       </c>
       <c r="H796" s="8">
-        <v>1018899</v>
+        <v>1018359</v>
       </c>
       <c r="I796" s="8">
-        <v>7949738</v>
+        <v>7953384</v>
       </c>
       <c r="J796" s="8">
-        <v>5072272</v>
+        <v>6075050</v>
       </c>
       <c r="K796" s="8">
-        <v>13022010</v>
+        <v>14028434</v>
       </c>
       <c r="L796" s="8"/>
       <c r="M796" s="8"/>
@@ -70944,34 +71074,34 @@
         <v>44378</v>
       </c>
       <c r="B797" s="8">
-        <v>6717537</v>
+        <v>6734986</v>
       </c>
       <c r="C797" s="8">
-        <v>1091590</v>
+        <v>1094329</v>
       </c>
       <c r="D797" s="8">
-        <v>7809127</v>
+        <v>7829315</v>
       </c>
       <c r="E797" s="8">
-        <v>4002899</v>
+        <v>4019154</v>
       </c>
       <c r="F797" s="8">
-        <v>11812026</v>
+        <v>11848468</v>
       </c>
       <c r="G797" s="8">
-        <v>6415373</v>
+        <v>6432037</v>
       </c>
       <c r="H797" s="8">
-        <v>1044374</v>
+        <v>1046994</v>
       </c>
       <c r="I797" s="8">
-        <v>7459747</v>
+        <v>7479031</v>
       </c>
       <c r="J797" s="8">
-        <v>3649982</v>
+        <v>3664804</v>
       </c>
       <c r="K797" s="8">
-        <v>11109729</v>
+        <v>11143836</v>
       </c>
       <c r="L797" s="8"/>
       <c r="M797" s="8"/>
@@ -70984,34 +71114,34 @@
         <v>44409</v>
       </c>
       <c r="B798" s="8">
-        <v>6957178</v>
+        <v>6965808</v>
       </c>
       <c r="C798" s="8">
-        <v>1183053</v>
+        <v>1182058</v>
       </c>
       <c r="D798" s="8">
-        <v>8140231</v>
+        <v>8147867</v>
       </c>
       <c r="E798" s="8">
-        <v>5391171</v>
+        <v>5401530</v>
       </c>
       <c r="F798" s="8">
-        <v>13531402</v>
+        <v>13549396</v>
       </c>
       <c r="G798" s="8">
-        <v>7067753</v>
+        <v>7076520</v>
       </c>
       <c r="H798" s="8">
-        <v>1169048</v>
+        <v>1168065</v>
       </c>
       <c r="I798" s="8">
-        <v>8236801</v>
+        <v>8244585</v>
       </c>
       <c r="J798" s="8">
-        <v>5403930</v>
+        <v>5414313</v>
       </c>
       <c r="K798" s="8">
-        <v>13640730</v>
+        <v>13658898</v>
       </c>
       <c r="L798" s="8"/>
       <c r="M798" s="8"/>
@@ -71024,34 +71154,34 @@
         <v>44440</v>
       </c>
       <c r="B799" s="8">
-        <v>6894349</v>
+        <v>7001641</v>
       </c>
       <c r="C799" s="8">
-        <v>1057839</v>
+        <v>1060728</v>
       </c>
       <c r="D799" s="8">
-        <v>7952188</v>
+        <v>8062369</v>
       </c>
       <c r="E799" s="8">
-        <v>4743720</v>
+        <v>4776256</v>
       </c>
       <c r="F799" s="8">
-        <v>12695908</v>
+        <v>12838625</v>
       </c>
       <c r="G799" s="8">
-        <v>6441752</v>
+        <v>6542000</v>
       </c>
       <c r="H799" s="8">
-        <v>962521</v>
+        <v>965149</v>
       </c>
       <c r="I799" s="8">
-        <v>7404272</v>
+        <v>7507149</v>
       </c>
       <c r="J799" s="8">
-        <v>4737514</v>
+        <v>4770007</v>
       </c>
       <c r="K799" s="8">
-        <v>12141786</v>
+        <v>12277157</v>
       </c>
       <c r="L799" s="8"/>
       <c r="M799" s="8"/>
@@ -71064,34 +71194,34 @@
         <v>44470</v>
       </c>
       <c r="B800" s="8">
-        <v>5958554</v>
+        <v>5990896</v>
       </c>
       <c r="C800" s="8">
-        <v>1011673</v>
+        <v>1013564</v>
       </c>
       <c r="D800" s="8">
-        <v>6970227</v>
+        <v>7004460</v>
       </c>
       <c r="E800" s="8">
-        <v>4015667</v>
+        <v>4033676</v>
       </c>
       <c r="F800" s="8">
-        <v>10985894</v>
+        <v>11038136</v>
       </c>
       <c r="G800" s="8">
-        <v>5536249</v>
+        <v>5566299</v>
       </c>
       <c r="H800" s="8">
-        <v>1003445</v>
+        <v>1005320</v>
       </c>
       <c r="I800" s="8">
-        <v>6539694</v>
+        <v>6571619</v>
       </c>
       <c r="J800" s="8">
-        <v>3817355</v>
+        <v>3834475</v>
       </c>
       <c r="K800" s="8">
-        <v>10357049</v>
+        <v>10406094</v>
       </c>
       <c r="L800" s="8"/>
       <c r="M800" s="8"/>
@@ -71104,34 +71234,34 @@
         <v>44501</v>
       </c>
       <c r="B801" s="8">
-        <v>6300011</v>
+        <v>6323499</v>
       </c>
       <c r="C801" s="8">
-        <v>1033962</v>
+        <v>1034596</v>
       </c>
       <c r="D801" s="8">
-        <v>7333973</v>
+        <v>7358096</v>
       </c>
       <c r="E801" s="8">
-        <v>5014933</v>
+        <v>5030882</v>
       </c>
       <c r="F801" s="8">
-        <v>12348907</v>
+        <v>12388978</v>
       </c>
       <c r="G801" s="8">
-        <v>5933778</v>
+        <v>5955901</v>
       </c>
       <c r="H801" s="8">
-        <v>1014076</v>
+        <v>1014698</v>
       </c>
       <c r="I801" s="8">
-        <v>6947854</v>
+        <v>6970599</v>
       </c>
       <c r="J801" s="8">
-        <v>4919205</v>
+        <v>4934850</v>
       </c>
       <c r="K801" s="8">
-        <v>11867059</v>
+        <v>11905448</v>
       </c>
       <c r="L801" s="8"/>
       <c r="M801" s="8"/>
@@ -71144,34 +71274,34 @@
         <v>44531</v>
       </c>
       <c r="B802" s="8">
-        <v>6130782</v>
+        <v>6118593</v>
       </c>
       <c r="C802" s="8">
-        <v>990296</v>
+        <v>1001018</v>
       </c>
       <c r="D802" s="8">
-        <v>7121078</v>
+        <v>7119611</v>
       </c>
       <c r="E802" s="8">
-        <v>4311589</v>
+        <v>4385146</v>
       </c>
       <c r="F802" s="8">
-        <v>11432667</v>
+        <v>11504757</v>
       </c>
       <c r="G802" s="8">
-        <v>6504857</v>
+        <v>6491924</v>
       </c>
       <c r="H802" s="8">
-        <v>1103933</v>
+        <v>1115885</v>
       </c>
       <c r="I802" s="8">
-        <v>7608789</v>
+        <v>7607809</v>
       </c>
       <c r="J802" s="8">
-        <v>4188245</v>
+        <v>4259698</v>
       </c>
       <c r="K802" s="8">
-        <v>11797035</v>
+        <v>11867507</v>
       </c>
       <c r="L802" s="8"/>
       <c r="M802" s="8"/>
@@ -71184,34 +71314,34 @@
         <v>44562</v>
       </c>
       <c r="B803" s="8">
-        <v>3711233</v>
+        <v>3838633</v>
       </c>
       <c r="C803" s="8">
-        <v>667422</v>
+        <v>676978</v>
       </c>
       <c r="D803" s="8">
-        <v>4378655</v>
+        <v>4515611</v>
       </c>
       <c r="E803" s="8">
-        <v>2253424</v>
+        <v>2407084</v>
       </c>
       <c r="F803" s="8">
-        <v>6632079</v>
+        <v>6922695</v>
       </c>
       <c r="G803" s="8">
-        <v>4918074</v>
+        <v>5086903</v>
       </c>
       <c r="H803" s="8">
-        <v>981738</v>
+        <v>995795</v>
       </c>
       <c r="I803" s="8">
-        <v>5899813</v>
+        <v>6082698</v>
       </c>
       <c r="J803" s="8">
-        <v>2629381</v>
+        <v>2808677</v>
       </c>
       <c r="K803" s="8">
-        <v>8529193</v>
+        <v>8891375</v>
       </c>
       <c r="L803" s="8"/>
       <c r="M803" s="8"/>
@@ -71224,40 +71354,120 @@
         <v>44593</v>
       </c>
       <c r="B804" s="8">
-        <v>6980476</v>
+        <v>7067691</v>
       </c>
       <c r="C804" s="8">
-        <v>955824</v>
+        <v>979447</v>
       </c>
       <c r="D804" s="8">
-        <v>7936300</v>
+        <v>8047139</v>
       </c>
       <c r="E804" s="8">
-        <v>6256486</v>
+        <v>6204807</v>
       </c>
       <c r="F804" s="8">
-        <v>14192786</v>
+        <v>14251946</v>
       </c>
       <c r="G804" s="8">
-        <v>7264625</v>
+        <v>7355390</v>
       </c>
       <c r="H804" s="8">
-        <v>918849</v>
+        <v>941559</v>
       </c>
       <c r="I804" s="8">
-        <v>8183474</v>
+        <v>8296948</v>
       </c>
       <c r="J804" s="8">
-        <v>6100615</v>
+        <v>6050224</v>
       </c>
       <c r="K804" s="8">
-        <v>14284089</v>
+        <v>14347172</v>
       </c>
       <c r="L804" s="8"/>
       <c r="M804" s="8"/>
       <c r="N804" s="8"/>
       <c r="O804" s="8"/>
       <c r="P804" s="8"/>
+    </row>
+    <row r="805" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A805" s="9">
+        <v>44621</v>
+      </c>
+      <c r="B805" s="8">
+        <v>6495081</v>
+      </c>
+      <c r="C805" s="8">
+        <v>1125706</v>
+      </c>
+      <c r="D805" s="8">
+        <v>7620787</v>
+      </c>
+      <c r="E805" s="8">
+        <v>5892570</v>
+      </c>
+      <c r="F805" s="8">
+        <v>13513357</v>
+      </c>
+      <c r="G805" s="8">
+        <v>5801251</v>
+      </c>
+      <c r="H805" s="8">
+        <v>943624</v>
+      </c>
+      <c r="I805" s="8">
+        <v>6744876</v>
+      </c>
+      <c r="J805" s="8">
+        <v>6215509</v>
+      </c>
+      <c r="K805" s="8">
+        <v>12960385</v>
+      </c>
+      <c r="L805" s="8"/>
+      <c r="M805" s="8"/>
+      <c r="N805" s="8"/>
+      <c r="O805" s="8"/>
+      <c r="P805" s="8"/>
+    </row>
+    <row r="806" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A806" s="9">
+        <v>44652</v>
+      </c>
+      <c r="B806" s="8">
+        <v>5725398</v>
+      </c>
+      <c r="C806" s="8">
+        <v>874475</v>
+      </c>
+      <c r="D806" s="8">
+        <v>6599873</v>
+      </c>
+      <c r="E806" s="8">
+        <v>3834161</v>
+      </c>
+      <c r="F806" s="8">
+        <v>10434034</v>
+      </c>
+      <c r="G806" s="8">
+        <v>6054221</v>
+      </c>
+      <c r="H806" s="8">
+        <v>1005848</v>
+      </c>
+      <c r="I806" s="8">
+        <v>7060069</v>
+      </c>
+      <c r="J806" s="8">
+        <v>4348408</v>
+      </c>
+      <c r="K806" s="8">
+        <v>11408477</v>
+      </c>
+      <c r="L806" s="8"/>
+      <c r="M806" s="8"/>
+      <c r="N806" s="8"/>
+      <c r="O806" s="8"/>
+      <c r="P806" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
